--- a/학점은행/2023 1학기/학점은행시간표.xlsx
+++ b/학점은행/2023 1학기/학점은행시간표.xlsx
@@ -14,53 +14,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <x:si>
     <x:t>O</x:t>
   </x:si>
   <x:si>
+    <x:t>1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헌법2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헌법1</x:t>
+  </x:si>
+  <x:si>
     <x:t>8주차</x:t>
   </x:si>
   <x:si>
+    <x:t>메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7주차</x:t>
+  </x:si>
+  <x:si>
     <x:t>2주차</x:t>
   </x:si>
   <x:si>
-    <x:t>3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헌법1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헌법2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4주차</x:t>
-  </x:si>
-  <x:si>
     <x:t>과제 ~6/11</x:t>
   </x:si>
   <x:si>
+    <x:t>피부미용학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13주차</x:t>
+  </x:si>
+  <x:si>
     <x:t>11주차</x:t>
   </x:si>
   <x:si>
@@ -70,31 +85,16 @@
     <x:t>보건의료법규</x:t>
   </x:si>
   <x:si>
-    <x:t>10주차</x:t>
-  </x:si>
-  <x:si>
     <x:t>응용업스타일</x:t>
   </x:si>
   <x:si>
-    <x:t>12주차</x:t>
-  </x:si>
-  <x:si>
     <x:t>조명디자인</x:t>
   </x:si>
   <x:si>
     <x:t>의사결정론</x:t>
   </x:si>
   <x:si>
-    <x:t>14주차</x:t>
-  </x:si>
-  <x:si>
     <x:t>15주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피부미용학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13주차</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1229,66 +1229,66 @@
     <x:row r="1" spans="1:17" ht="16.75">
       <x:c r="A1" s="5"/>
       <x:c r="B1" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E1" s="11" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1" s="11" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="11" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F1" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="G1" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H1" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I1" s="11" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J1" s="11" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="H1" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I1" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="K1" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="L1" s="11" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M1" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N1" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O1" s="11" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="L1" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="M1" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="N1" s="11" t="s">
+      <x:c r="P1" s="11" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="O1" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P1" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="Q1" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17">
       <x:c r="A2" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="1"/>
       <x:c r="F2" s="1"/>
@@ -1306,16 +1306,16 @@
     </x:row>
     <x:row r="3" spans="1:17">
       <x:c r="A3" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E3" s="1"/>
       <x:c r="F3" s="1"/>
@@ -1335,15 +1335,17 @@
     </x:row>
     <x:row r="4" spans="1:17">
       <x:c r="A4" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="1"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E4" s="1"/>
       <x:c r="F4" s="1"/>
       <x:c r="G4" s="1"/>
@@ -1360,15 +1362,17 @@
     </x:row>
     <x:row r="5" spans="1:17">
       <x:c r="A5" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D5" s="1"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E5" s="1"/>
       <x:c r="F5" s="1"/>
       <x:c r="G5" s="1"/>
@@ -1385,16 +1389,16 @@
     </x:row>
     <x:row r="6" spans="1:17">
       <x:c r="A6" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E6" s="1"/>
       <x:c r="F6" s="1"/>
@@ -1412,16 +1416,16 @@
     </x:row>
     <x:row r="7" spans="1:17">
       <x:c r="A7" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E7" s="1"/>
       <x:c r="F7" s="1"/>
@@ -1439,16 +1443,16 @@
     </x:row>
     <x:row r="8" spans="1:17">
       <x:c r="A8" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E8" s="1"/>
       <x:c r="F8" s="1"/>
@@ -1466,16 +1470,16 @@
     </x:row>
     <x:row r="9" spans="1:17" ht="16.75">
       <x:c r="A9" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E9" s="3"/>
       <x:c r="F9" s="3"/>
@@ -1505,7 +1509,7 @@
       <x:formula>NOT(ISERROR(SEARCH("O",B3)))</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/학점은행/2023 1학기/학점은행시간표.xlsx
+++ b/학점은행/2023 1학기/학점은행시간표.xlsx
@@ -14,87 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+  <x:si>
+    <x:t>4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헌법1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헌법2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차</x:t>
+  </x:si>
   <x:si>
     <x:t>O</x:t>
   </x:si>
   <x:si>
-    <x:t>1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헌법2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헌법1</x:t>
+    <x:t>2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9주차</x:t>
   </x:si>
   <x:si>
     <x:t>8주차</x:t>
   </x:si>
   <x:si>
-    <x:t>메모</x:t>
+    <x:t>6주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
   </x:si>
   <x:si>
     <x:t>O</x:t>
   </x:si>
   <x:si>
-    <x:t>6주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주차</x:t>
-  </x:si>
-  <x:si>
     <x:t>과제 ~6/11</x:t>
   </x:si>
   <x:si>
+    <x:t>10주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조명디자인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보건의료법규</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의사결정론</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응용업스타일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12주차</x:t>
+  </x:si>
+  <x:si>
     <x:t>피부미용학</x:t>
   </x:si>
   <x:si>
-    <x:t>10주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11주차</x:t>
-  </x:si>
-  <x:si>
     <x:t>인터넷마케팅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보건의료법규</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응용업스타일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조명디자인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의사결정론</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15주차</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1216,7 +1219,7 @@
   <x:dimension ref="A1:Q10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <x:selection activeCell="D6" activeCellId="0" sqref="D6:D6"/>
+      <x:selection activeCell="I4" activeCellId="0" sqref="I4:I4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -1229,57 +1232,57 @@
     <x:row r="1" spans="1:17" ht="16.75">
       <x:c r="A1" s="5"/>
       <x:c r="B1" s="11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C1" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D1" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E1" s="11" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1" s="11" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H1" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1" s="11" t="s">
+      <x:c r="I1" s="11" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E1" s="11" t="s">
+      <x:c r="J1" s="11" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="F1" s="11" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G1" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H1" s="11" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I1" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J1" s="11" t="s">
-        <x:v>11</x:v>
       </x:c>
       <x:c r="K1" s="11" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="L1" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M1" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N1" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O1" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P1" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q1" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17">
       <x:c r="A2" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>7</x:v>
@@ -1290,11 +1293,21 @@
       <x:c r="D2" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E2" s="1"/>
-      <x:c r="F2" s="1"/>
-      <x:c r="G2" s="1"/>
-      <x:c r="H2" s="1"/>
-      <x:c r="I2" s="1"/>
+      <x:c r="E2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="J2" s="1"/>
       <x:c r="K2" s="1"/>
       <x:c r="L2" s="1"/>
@@ -1306,7 +1319,7 @@
     </x:row>
     <x:row r="3" spans="1:17">
       <x:c r="A3" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>7</x:v>
@@ -1317,11 +1330,21 @@
       <x:c r="D3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E3" s="1"/>
-      <x:c r="F3" s="1"/>
-      <x:c r="G3" s="1"/>
-      <x:c r="H3" s="1"/>
-      <x:c r="I3" s="1"/>
+      <x:c r="E3" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="J3" s="1"/>
       <x:c r="K3" s="1"/>
       <x:c r="L3" s="1"/>
@@ -1330,12 +1353,12 @@
       <x:c r="O3" s="1"/>
       <x:c r="P3" s="1"/>
       <x:c r="Q3" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:17">
       <x:c r="A4" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>7</x:v>
@@ -1344,12 +1367,20 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="1"/>
-      <x:c r="F4" s="1"/>
-      <x:c r="G4" s="1"/>
-      <x:c r="H4" s="1"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="I4" s="1"/>
       <x:c r="J4" s="1"/>
       <x:c r="K4" s="1"/>
@@ -1362,7 +1393,7 @@
     </x:row>
     <x:row r="5" spans="1:17">
       <x:c r="A5" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>7</x:v>
@@ -1371,13 +1402,23 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E5" s="1"/>
-      <x:c r="F5" s="1"/>
-      <x:c r="G5" s="1"/>
-      <x:c r="H5" s="1"/>
-      <x:c r="I5" s="1"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="J5" s="1"/>
       <x:c r="K5" s="1"/>
       <x:c r="L5" s="1"/>
@@ -1389,7 +1430,7 @@
     </x:row>
     <x:row r="6" spans="1:17">
       <x:c r="A6" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>7</x:v>
@@ -1400,11 +1441,21 @@
       <x:c r="D6" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E6" s="1"/>
-      <x:c r="F6" s="1"/>
-      <x:c r="G6" s="1"/>
-      <x:c r="H6" s="1"/>
-      <x:c r="I6" s="1"/>
+      <x:c r="E6" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="J6" s="1"/>
       <x:c r="K6" s="1"/>
       <x:c r="L6" s="1"/>
@@ -1416,7 +1467,7 @@
     </x:row>
     <x:row r="7" spans="1:17">
       <x:c r="A7" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>7</x:v>
@@ -1427,11 +1478,21 @@
       <x:c r="D7" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E7" s="1"/>
-      <x:c r="F7" s="1"/>
-      <x:c r="G7" s="1"/>
-      <x:c r="H7" s="1"/>
-      <x:c r="I7" s="1"/>
+      <x:c r="E7" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="J7" s="1"/>
       <x:c r="K7" s="1"/>
       <x:c r="L7" s="1"/>
@@ -1443,7 +1504,7 @@
     </x:row>
     <x:row r="8" spans="1:17">
       <x:c r="A8" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>7</x:v>
@@ -1454,11 +1515,21 @@
       <x:c r="D8" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E8" s="1"/>
-      <x:c r="F8" s="1"/>
-      <x:c r="G8" s="1"/>
-      <x:c r="H8" s="1"/>
-      <x:c r="I8" s="1"/>
+      <x:c r="E8" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="J8" s="1"/>
       <x:c r="K8" s="1"/>
       <x:c r="L8" s="1"/>
@@ -1470,7 +1541,7 @@
     </x:row>
     <x:row r="9" spans="1:17" ht="16.75">
       <x:c r="A9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
         <x:v>7</x:v>
@@ -1481,11 +1552,21 @@
       <x:c r="D9" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E9" s="3"/>
-      <x:c r="F9" s="3"/>
-      <x:c r="G9" s="3"/>
-      <x:c r="H9" s="3"/>
-      <x:c r="I9" s="3"/>
+      <x:c r="E9" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I9" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="J9" s="3"/>
       <x:c r="K9" s="3"/>
       <x:c r="L9" s="3"/>
@@ -1499,12 +1580,12 @@
       <x:c r="A10" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:conditionalFormatting sqref="B2:P2">
+  <x:conditionalFormatting sqref="B2:P2 E3:H9">
     <x:cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="O">
       <x:formula>NOT(ISERROR(SEARCH("O",B2)))</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="B3:Q11">
+  <x:conditionalFormatting sqref="B3:D9 I3:Q9 B10:Q11">
     <x:cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="O">
       <x:formula>NOT(ISERROR(SEARCH("O",B3)))</x:formula>
     </x:cfRule>
